--- a/genshin/448163129920069495_2020-10-20_17-01-50.xlsx
+++ b/genshin/448163129920069495_2020-10-20_17-01-50.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:11:20</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.09120370371</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-10-31 07:46:28</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44135.32393518519</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-10-27 03:27:53</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44131.14436342593</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -770,10 +780,8 @@
           <t>3635266997</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-10-25 08:41:02</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44129.3618287037</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -841,10 +849,8 @@
           <t>3629039552</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-10-23 16:58:19</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44127.70716435185</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -912,10 +918,8 @@
           <t>3627819684</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-10-23 08:21:11</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44127.34804398148</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -991,10 +995,8 @@
           <t>3627825029</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-10-23 08:17:48</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44127.34569444445</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1066,10 +1068,8 @@
           <t>3619391872</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-10-23 07:51:14</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44127.32724537037</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1142,10 +1142,8 @@
           <t>3619391872</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-10-22 22:51:42</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44126.95256944445</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1213,10 +1211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-10-22 15:12:51</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44126.63392361111</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1284,10 +1280,8 @@
           <t>3619391872</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-10-22 13:08:11</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44126.54734953704</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1360,10 +1354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-10-22 09:54:17</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44126.41269675926</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1435,10 +1427,8 @@
           <t>3619391872</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-10-22 09:23:09</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44126.39107638889</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1502,10 +1492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-10-22 01:19:32</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44126.05523148148</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1565,10 +1553,8 @@
           <t>3619445480</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-10-21 23:41:49</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44125.98737268519</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1644,10 +1630,8 @@
           <t>3619391872</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-10-21 19:51:36</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44125.8275</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1720,10 +1704,8 @@
           <t>3623060782</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-10-21 19:23:44</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44125.80814814815</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1787,10 +1769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-10-21 12:45:54</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44125.531875</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1854,10 +1834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-10-21 12:35:38</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44125.52474537037</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1935,10 +1913,8 @@
           <t>3621865465</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-10-21 12:04:36</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44125.50319444444</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2010,10 +1986,8 @@
           <t>3619504050</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-10-21 11:54:32</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44125.4962037037</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2081,10 +2055,8 @@
           <t>3621613852</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-10-21 10:19:51</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44125.43045138889</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2156,10 +2128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-10-21 09:54:39</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44125.41295138889</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2221,10 +2191,8 @@
           <t>3621549232</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-10-21 09:46:28</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44125.40726851852</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2298,10 +2266,8 @@
           <t>3621517924</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-10-21 09:27:00</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44125.39375</v>
       </c>
       <c r="I26" t="n">
         <v>3</v>
@@ -2369,10 +2335,8 @@
           <t>3619504050</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-10-21 08:44:41</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44125.36436342593</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2440,10 +2404,8 @@
           <t>3619504050</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-10-21 08:38:38</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44125.36016203704</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2511,10 +2473,8 @@
           <t>3621441535</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-10-21 08:38:25</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44125.36001157408</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2590,10 +2550,8 @@
           <t>3619504050</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-10-21 07:47:29</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44125.3246412037</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2661,10 +2619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-10-21 06:56:19</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44125.2891087963</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2736,10 +2692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-10-21 03:37:19</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44125.15091435185</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2803,10 +2757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-10-21 02:53:39</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44125.12059027778</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2882,10 +2834,8 @@
           <t>3619397907</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-10-21 02:48:41</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44125.1171412037</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2958,10 +2908,8 @@
           <t>3621170824</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-10-21 02:19:46</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44125.09706018519</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3038,10 +2986,8 @@
           <t>3619399506</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-10-21 00:53:27</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44125.03711805555</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3109,10 +3055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-10-21 00:27:02</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44125.01877314815</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3184,10 +3128,8 @@
           <t>3619515129</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-10-21 00:08:49</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44125.00612268518</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3263,10 +3205,8 @@
           <t>3620842399</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-10-20 23:48:13</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44124.99181712963</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3330,10 +3270,8 @@
           <t>3620539466</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-10-20 23:41:54</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44124.98743055556</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3397,10 +3335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-10-20 23:41:14</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44124.98696759259</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3472,10 +3408,8 @@
           <t>3620776379</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-10-20 23:30:51</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44124.97975694444</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3551,10 +3485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-10-20 22:54:49</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44124.95473379629</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3626,10 +3558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-10-20 22:52:51</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44124.95336805555</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3697,10 +3627,8 @@
           <t>3619399785</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-10-20 22:39:20</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44124.94398148148</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3768,10 +3696,8 @@
           <t>3619399785</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-10-20 22:39:06</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44124.94381944444</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3839,10 +3765,8 @@
           <t>3620539466</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-10-20 22:33:25</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44124.93987268519</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3906,10 +3830,8 @@
           <t>3620541141</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-10-20 22:32:59</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44124.93957175926</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3973,10 +3895,8 @@
           <t>3619398749</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-10-20 22:32:01</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44124.93890046296</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4053,10 +3973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-10-20 22:17:28</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44124.9287962963</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4132,10 +4050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-10-20 22:17:17</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44124.92866898148</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4211,10 +4127,8 @@
           <t>3620475922</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-10-20 22:16:15</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44124.92795138889</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4290,10 +4204,8 @@
           <t>3619481772</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-10-20 21:24:00</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44124.89166666667</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4357,10 +4269,8 @@
           <t>3619481772</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-10-20 21:18:44</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44124.88800925926</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4424,10 +4334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-10-20 21:05:28</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44124.8787962963</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4495,10 +4403,8 @@
           <t>3619473126</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-10-20 20:51:11</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44124.86887731482</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4570,10 +4476,8 @@
           <t>3620129608</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-10-20 20:48:18</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44124.866875</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4641,10 +4545,8 @@
           <t>3619475447</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-10-20 20:28:45</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44124.85329861111</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4708,10 +4610,8 @@
           <t>3619450758</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-10-20 20:26:42</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44124.851875</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4787,10 +4687,8 @@
           <t>3619536561</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-10-20 20:25:23</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44124.85096064815</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4854,10 +4752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-10-20 20:22:25</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44124.84890046297</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4933,10 +4829,8 @@
           <t>3619408722</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-10-20 20:20:20</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44124.8474537037</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5000,10 +4894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:52:58</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44124.82844907408</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5067,10 +4959,8 @@
           <t>3619504050</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:46:49</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44124.82417824074</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5138,10 +5028,8 @@
           <t>3619901058</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:40:50</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44124.82002314815</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5209,10 +5097,8 @@
           <t>3619897554</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:40:17</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44124.81964120371</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5280,10 +5166,8 @@
           <t>3619475447</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:33:22</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44124.81483796296</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5347,10 +5231,8 @@
           <t>3619431951</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:31:49</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44124.81376157407</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5414,10 +5296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:29:49</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44124.81237268518</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5489,10 +5369,8 @@
           <t>3619854410</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:28:17</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44124.81130787037</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5562,10 +5440,8 @@
           <t>3619847995</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:25:32</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44124.80939814815</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5629,10 +5505,8 @@
           <t>3619473126</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:25:24</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44124.80930555556</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5692,10 +5566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:24:56</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44124.80898148148</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5759,10 +5631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:18:10</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44124.80428240741</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5838,10 +5708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:18:07</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44124.80424768518</v>
       </c>
       <c r="I75" t="n">
         <v>14</v>
@@ -5913,10 +5781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:16:13</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44124.80292824074</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5980,10 +5846,8 @@
           <t>3619811858</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:15:26</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44124.80238425926</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6059,10 +5923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:14:40</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44124.80185185185</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6138,10 +6000,8 @@
           <t>3619450758</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:12:40</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44124.80046296296</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6209,10 +6069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:12:08</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44124.8000925926</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6280,10 +6138,8 @@
           <t>3619515129</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:11:17</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44124.79950231482</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6343,10 +6199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:09:04</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44124.79796296296</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6414,10 +6268,8 @@
           <t>3619536561</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:08:51</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44124.7978125</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6485,10 +6337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:08:36</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44124.79763888889</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6561,10 +6411,8 @@
           <t>3619515129</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:06:46</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44124.79636574074</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6632,10 +6480,8 @@
           <t>3619543376</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:06:28</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44124.79615740741</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6703,10 +6549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:05:37</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44124.79556712963</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6770,10 +6614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:04:30</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44124.79479166667</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6841,10 +6683,8 @@
           <t>3619493838</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-10-20 19:01:14</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44124.79252314815</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6912,10 +6752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:58:47</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44124.79082175926</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6987,10 +6825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:58:44</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44124.79078703704</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7050,10 +6886,8 @@
           <t>3619515129</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:57:38</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44124.79002314815</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7122,10 +6956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:56:57</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44124.78954861111</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7197,10 +7029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:55:50</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44124.78877314815</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7268,10 +7098,8 @@
           <t>3619739192</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:55:47</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44124.78873842592</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7343,10 +7171,8 @@
           <t>3619722602</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:50:08</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44124.78481481481</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7422,10 +7248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:48:55</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44124.78396990741</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7493,10 +7317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:48:33</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44124.78371527778</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7560,10 +7382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:43:45</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44124.78038194445</v>
       </c>
       <c r="I99" t="n">
         <v>2</v>
@@ -7639,10 +7459,8 @@
           <t>3619698942</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:43:32</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44124.78023148148</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7720,10 +7538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:43:04</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44124.77990740741</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7802,10 +7618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:41:57</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44124.77913194444</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7869,10 +7683,8 @@
           <t>3619696351</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:41:19</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44124.77869212963</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7940,10 +7752,8 @@
           <t>3619536561</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:41:15</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44124.77864583334</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8010,10 +7820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:41:14</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44124.77863425926</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8077,10 +7885,8 @@
           <t>3619684460</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:39:41</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44124.77755787037</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8148,10 +7954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:38:36</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44124.77680555556</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8219,10 +8023,8 @@
           <t>3619679085</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:38:29</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44124.77672453703</v>
       </c>
       <c r="I108" t="n">
         <v>4</v>
@@ -8286,10 +8088,8 @@
           <t>3619682377</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:37:52</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44124.7762962963</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8361,10 +8161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:36:26</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44124.77530092592</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8436,10 +8234,8 @@
           <t>3619676617</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:36:21</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44124.77524305556</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8511,10 +8307,8 @@
           <t>3619680390</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:36:09</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44124.77510416666</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8586,10 +8380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:36:08</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44124.77509259259</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8653,10 +8445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:30:49</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44124.77140046296</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8720,10 +8510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:30:18</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44124.77104166667</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8791,10 +8579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:29:28</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44124.77046296297</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8862,10 +8648,8 @@
           <t>3619515129</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:28:12</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44124.76958333333</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8933,10 +8717,8 @@
           <t>3619415733</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:26:29</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44124.7683912037</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9004,10 +8786,8 @@
           <t>3619643140</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:26:10</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44124.76817129629</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9083,10 +8863,8 @@
           <t>3619515129</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:22:40</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44124.76574074074</v>
       </c>
       <c r="I120" t="n">
         <v>2</v>
@@ -9154,10 +8932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:20:22</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44124.76414351852</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9229,10 +9005,8 @@
           <t>3619515129</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:20:07</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44124.76396990741</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9300,10 +9074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:17:06</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44124.761875</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9367,10 +9139,8 @@
           <t>3619562751</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:16:49</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44124.76167824074</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9446,10 +9216,8 @@
           <t>3619450758</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:12:34</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44124.75872685185</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9526,10 +9294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:12:28</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44124.75865740741</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9593,10 +9359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:11:28</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44124.75796296296</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9664,10 +9428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:10:43</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44124.75744212963</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9739,10 +9501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:10:15</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44124.75711805555</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9806,10 +9566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:09:18</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44124.75645833334</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9881,10 +9639,8 @@
           <t>3619416876</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:08:34</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44124.75594907408</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9952,10 +9708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:08:11</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44124.75568287037</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10023,10 +9777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:07:55</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44124.75549768518</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10094,10 +9846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:07:52</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44124.75546296296</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10161,10 +9911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:07:24</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44124.75513888889</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10228,10 +9976,8 @@
           <t>3619573212</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:07:17</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44124.75505787037</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10303,10 +10049,8 @@
           <t>3619511340</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:07:13</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44124.75501157407</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10374,10 +10118,8 @@
           <t>3619415269</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:06:10</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44124.7542824074</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10445,10 +10187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:05:51</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44124.7540625</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10512,10 +10252,8 @@
           <t>3619564534</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:04:46</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44124.75331018519</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10593,10 +10331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:04:37</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44124.75320601852</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10660,10 +10396,8 @@
           <t>3619562751</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:03:10</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44124.75219907407</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10736,10 +10470,8 @@
           <t>3619399785</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:03:00</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44124.75208333333</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10815,10 +10547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:02:51</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44124.75197916666</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10886,10 +10616,8 @@
           <t>3619562283</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:02:46</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44124.75192129629</v>
       </c>
       <c r="I145" t="n">
         <v>12</v>
@@ -10953,10 +10681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:01:43</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44124.75119212963</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11032,10 +10758,8 @@
           <t>3619565236</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:01:06</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44124.75076388889</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11099,10 +10823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-10-20 18:00:21</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44124.75024305555</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11178,10 +10900,8 @@
           <t>3619544431</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:59:22</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44124.74956018518</v>
       </c>
       <c r="I149" t="n">
         <v>2</v>
@@ -11249,10 +10969,8 @@
           <t>3619445480</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:59:21</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44124.74954861111</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11316,10 +11034,8 @@
           <t>3619415269</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:58:57</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44124.74927083333</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11395,10 +11111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:58:51</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44124.74920138889</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11466,10 +11180,8 @@
           <t>3619473126</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:58:43</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44124.7491087963</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11545,10 +11257,8 @@
           <t>3619543376</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:58:21</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44124.74885416667</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11620,10 +11330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:58:15</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44124.74878472222</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11691,10 +11399,8 @@
           <t>3619547126</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:58:01</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44124.74862268518</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11766,10 +11472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:56:44</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44124.74773148148</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11837,10 +11541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:56:24</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44124.7475</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11916,10 +11618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:55:37</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44124.74695601852</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11991,10 +11691,8 @@
           <t>3619540132</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:55:22</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44124.7467824074</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12062,10 +11760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:55:06</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44124.74659722222</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12129,10 +11825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:55:02</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44124.74655092593</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12196,10 +11890,8 @@
           <t>3619538054</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:54:17</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44124.7460300926</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12267,10 +11959,8 @@
           <t>3619537889</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:54:07</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44124.74591435185</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12334,10 +12024,8 @@
           <t>3619473126</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:53:55</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44124.74577546296</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12405,10 +12093,8 @@
           <t>3619532418</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:53:39</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44124.74559027778</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12484,10 +12170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:53:38</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44124.7455787037</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12563,10 +12247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:53:27</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44124.74545138889</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12630,10 +12312,8 @@
           <t>3619515129</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:53:07</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44124.74521990741</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12693,10 +12373,8 @@
           <t>3619536665</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:52:58</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44124.74511574074</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12772,10 +12450,8 @@
           <t>3619536561</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:52:52</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44124.7450462963</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -12843,10 +12519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:52:50</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44124.74502314815</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -12910,10 +12584,8 @@
           <t>3619535963</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:52:18</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44124.74465277778</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12990,10 +12662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:52:15</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44124.74461805556</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13062,10 +12732,8 @@
           <t>3619406252</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:52:10</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44124.74456018519</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13133,10 +12801,8 @@
           <t>3619514963</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:51:24</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44124.74402777778</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13204,10 +12870,8 @@
           <t>3619525670</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:51:11</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44124.74387731482</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13283,10 +12947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:50:30</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44124.74340277778</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13354,10 +13016,8 @@
           <t>3619514963</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:50:30</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44124.74340277778</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13429,10 +13089,8 @@
           <t>3619406252</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:49:30</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44124.74270833333</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13504,10 +13162,8 @@
           <t>3619522990</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:49:20</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44124.74259259259</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13581,10 +13237,8 @@
           <t>3619513748</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:49:18</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44124.74256944445</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13652,10 +13306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:48:25</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44124.74195601852</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13719,10 +13371,8 @@
           <t>3619399785</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:48:24</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44124.74194444445</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13798,10 +13448,8 @@
           <t>3619521855</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:48:14</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44124.74182870371</v>
       </c>
       <c r="I185" t="n">
         <v>2</v>
@@ -13869,10 +13517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:47:54</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44124.74159722222</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13940,10 +13586,8 @@
           <t>3619512274</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:47:47</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44124.74151620371</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -14019,10 +13663,8 @@
           <t>3619511340</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:46:51</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44124.74086805555</v>
       </c>
       <c r="I188" t="n">
         <v>3</v>
@@ -14090,10 +13732,8 @@
           <t>3619515129</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:46:27</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44124.74059027778</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14161,10 +13801,8 @@
           <t>3619510864</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:46:24</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44124.74055555555</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14228,10 +13866,8 @@
           <t>3619406252</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:46:20</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44124.74050925926</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14303,10 +13939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:45:27</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44124.73989583334</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14383,10 +14017,8 @@
           <t>3619504050</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:45:24</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44124.73986111111</v>
       </c>
       <c r="I193" t="n">
         <v>17</v>
@@ -14454,10 +14086,8 @@
           <t>3619503823</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:45:09</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44124.7396875</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14533,10 +14163,8 @@
           <t>3619503657</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:45:00</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44124.73958333334</v>
       </c>
       <c r="I195" t="n">
         <v>1</v>
@@ -14604,10 +14232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:44:59</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44124.73957175926</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14685,10 +14311,8 @@
           <t>3619508147</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:44:31</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44124.73924768518</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -14760,10 +14384,8 @@
           <t>3619415733</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:44:26</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44124.73918981481</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14831,10 +14453,8 @@
           <t>3619503058</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:44:24</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44124.73916666667</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14902,10 +14522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:44:06</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44124.73895833334</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14981,10 +14599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:44:03</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44124.73892361111</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15052,10 +14668,8 @@
           <t>3619460890</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:43:59</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44124.73887731481</v>
       </c>
       <c r="I202" t="n">
         <v>2</v>
@@ -15123,10 +14737,8 @@
           <t>3619481772</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:43:55</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44124.73883101852</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15190,10 +14802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:43:45</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44124.73871527778</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15261,10 +14871,8 @@
           <t>3619497721</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:43:19</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44124.73841435185</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15332,10 +14940,8 @@
           <t>3619422158</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:43:15</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44124.73836805556</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15407,10 +15013,8 @@
           <t>3619506539</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:42:58</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44124.7381712963</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15474,10 +15078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:42:46</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44124.7380324074</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15555,10 +15157,8 @@
           <t>3619501221</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:42:36</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44124.73791666667</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15630,10 +15230,8 @@
           <t>3619496729</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:42:20</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44124.73773148148</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15697,10 +15295,8 @@
           <t>3619431951</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:41:29</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44124.7371412037</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15764,10 +15360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:41:10</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44124.73692129629</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -15839,10 +15433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:40:50</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44124.73668981482</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15914,10 +15506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:40:38</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44124.73655092593</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15989,10 +15579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:40:35</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44124.7365162037</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -16060,10 +15648,8 @@
           <t>3619473126</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:40:30</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44124.73645833333</v>
       </c>
       <c r="I216" t="n">
         <v>15</v>
@@ -16139,10 +15725,8 @@
           <t>3619460890</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:40:21</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44124.73635416666</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16210,10 +15794,8 @@
           <t>3619493838</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:40:18</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44124.73631944445</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16289,10 +15871,8 @@
           <t>3619399785</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:40:04</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44124.73615740741</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16369,10 +15949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:39:37</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44124.73584490741</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16448,10 +16026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:38:59</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44124.73540509259</v>
       </c>
       <c r="I221" t="n">
         <v>2</v>
@@ -16522,10 +16098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:38:41</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44124.73519675926</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16593,10 +16167,8 @@
           <t>3619487331</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:38:35</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44124.73512731482</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16660,10 +16232,8 @@
           <t>3619487029</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:38:15</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44124.73489583333</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16731,10 +16301,8 @@
           <t>3619403339</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:38:09</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44124.73482638889</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16798,10 +16366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:38:08</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44124.73481481482</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16869,10 +16435,8 @@
           <t>3619486838</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:38:03</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44124.73475694445</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16948,10 +16512,8 @@
           <t>3619486388</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:37:36</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44124.73444444445</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17019,10 +16581,8 @@
           <t>3619406252</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:37:33</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44124.73440972222</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17098,10 +16658,8 @@
           <t>3619481772</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:37:22</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44124.73428240741</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17165,10 +16723,8 @@
           <t>3619422158</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:36:59</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44124.73401620371</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17232,10 +16788,8 @@
           <t>3619481162</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:36:45</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44124.73385416667</v>
       </c>
       <c r="I232" t="n">
         <v>3</v>
@@ -17311,10 +16865,8 @@
           <t>3619397907</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:36:28</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44124.73365740741</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17390,10 +16942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:35:40</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44124.73310185185</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17461,10 +17011,8 @@
           <t>3619420420</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:35:40</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44124.73310185185</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17528,10 +17076,8 @@
           <t>3619403339</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:35:38</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44124.73307870371</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17591,10 +17137,8 @@
           <t>3619469997</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:35:34</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44124.73303240741</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17666,10 +17210,8 @@
           <t>3619479174</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:35:31</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44124.73299768518</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17737,10 +17279,8 @@
           <t>3619474335</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:35:28</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44124.73296296296</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17816,10 +17356,8 @@
           <t>3619478769</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:35:07</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44124.73271990741</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17883,10 +17421,8 @@
           <t>3619473520</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:34:37</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44124.73237268518</v>
       </c>
       <c r="I241" t="n">
         <v>1</v>
@@ -17950,10 +17486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:34:32</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44124.73231481481</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18017,10 +17551,8 @@
           <t>3619468841</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:34:23</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44124.73221064815</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18080,10 +17612,8 @@
           <t>3619411764</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:34:20</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44124.73217592593</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18159,10 +17689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:34:15</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44124.73211805556</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18230,10 +17758,8 @@
           <t>3619475447</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:34:14</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44124.73210648148</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18309,10 +17835,8 @@
           <t>3619473126</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:34:10</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44124.73206018518</v>
       </c>
       <c r="I247" t="n">
         <v>25</v>
@@ -18388,10 +17912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:33:55</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44124.73188657407</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18455,10 +17977,8 @@
           <t>3619403339</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:33:48</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44124.73180555556</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18526,10 +18046,8 @@
           <t>3619468222</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:33:45</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44124.73177083334</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18589,10 +18107,8 @@
           <t>3619468156</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:33:41</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44124.73172453704</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18656,10 +18172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:33:33</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44124.73163194444</v>
       </c>
       <c r="I252" t="n">
         <v>10</v>
@@ -18736,10 +18250,8 @@
           <t>3619472557</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:33:31</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44124.7316087963</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18811,10 +18323,8 @@
           <t>3619477166</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:33:27</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44124.7315625</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -18890,10 +18400,8 @@
           <t>3619467370</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:32:52</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44124.7311574074</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18969,10 +18477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:32:40</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44124.73101851852</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19032,10 +18538,8 @@
           <t>3619471717</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:32:37</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44124.7309837963</v>
       </c>
       <c r="I257" t="n">
         <v>2</v>
@@ -19107,10 +18611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:32:05</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44124.73061342593</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19187,10 +18689,8 @@
           <t>3619475792</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:31:59</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44124.73054398148</v>
       </c>
       <c r="I259" t="n">
         <v>26</v>
@@ -19254,10 +18754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:31:54</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44124.73048611111</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19321,10 +18819,8 @@
           <t>3619475447</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:31:37</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44124.73028935185</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19388,10 +18884,8 @@
           <t>3619450758</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:31:32</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44124.73023148148</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19467,10 +18961,8 @@
           <t>3619475257</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:31:25</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44124.73015046296</v>
       </c>
       <c r="I263" t="n">
         <v>5</v>
@@ -19538,10 +19030,8 @@
           <t>3619475131</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:31:17</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44124.73005787037</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19605,10 +19095,8 @@
           <t>3619470278</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:31:05</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44124.72991898148</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19676,10 +19164,8 @@
           <t>3619403339</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:31:00</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44124.72986111111</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19739,10 +19225,8 @@
           <t>3619465345</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:30:48</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44124.72972222222</v>
       </c>
       <c r="I267" t="n">
         <v>2</v>
@@ -19810,10 +19294,8 @@
           <t>3619443695</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:30:42</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44124.72965277778</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19877,10 +19359,8 @@
           <t>3619465179</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:30:38</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44124.72960648148</v>
       </c>
       <c r="I269" t="n">
         <v>3</v>
@@ -19948,10 +19428,8 @@
           <t>3619459515</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:30:18</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44124.729375</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20027,10 +19505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:30:17</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44124.72936342593</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20094,10 +19570,8 @@
           <t>3619464118</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:30:16</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44124.72935185185</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20161,10 +19635,8 @@
           <t>3619431746</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:29:43</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44124.72896990741</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20240,10 +19712,8 @@
           <t>3619458803</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:29:33</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44124.72885416666</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20311,10 +19781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:29:13</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44124.72862268519</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20390,10 +19858,8 @@
           <t>3619403339</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:29:11</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44124.72859953704</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20461,10 +19927,8 @@
           <t>3619463005</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:29:07</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44124.72855324074</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20532,10 +19996,8 @@
           <t>3619458214</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:28:54</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44124.72840277778</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20599,10 +20061,8 @@
           <t>3619443695</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:28:46</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44124.72831018519</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20678,10 +20138,8 @@
           <t>3619406252</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:28:20</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44124.72800925926</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20749,10 +20207,8 @@
           <t>3619452837</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:28:08</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44124.72787037037</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20816,10 +20272,8 @@
           <t>3619462074</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:28:08</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44124.72787037037</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -20879,10 +20333,8 @@
           <t>3619456985</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:27:36</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44124.7275</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -20946,10 +20398,8 @@
           <t>3619452246</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:27:31</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44124.72744212963</v>
       </c>
       <c r="I284" t="n">
         <v>2</v>
@@ -21025,10 +20475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:27:22</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44124.72733796296</v>
       </c>
       <c r="I285" t="n">
         <v>21</v>
@@ -21096,10 +20544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:27:06</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44124.72715277778</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21163,10 +20609,8 @@
           <t>3619456482</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:27:02</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44124.72710648148</v>
       </c>
       <c r="I287" t="n">
         <v>2</v>
@@ -21230,10 +20674,8 @@
           <t>3619460890</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:26:51</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44124.72697916667</v>
       </c>
       <c r="I288" t="n">
         <v>26</v>
@@ -21297,10 +20739,8 @@
           <t>3619460470</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:26:25</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44124.72667824074</v>
       </c>
       <c r="I289" t="n">
         <v>10</v>
@@ -21376,10 +20816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:26:24</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44124.72666666667</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21451,10 +20889,8 @@
           <t>3619460454</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:26:24</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44124.72666666667</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21518,10 +20954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:26:15</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44124.7265625</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21598,10 +21032,8 @@
           <t>3619455640</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:26:08</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44124.72648148148</v>
       </c>
       <c r="I293" t="n">
         <v>38</v>
@@ -21669,10 +21101,8 @@
           <t>3619455598</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:26:05</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44124.72644675926</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21740,10 +21170,8 @@
           <t>3619449994</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:25:54</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44124.72631944445</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21807,10 +21235,8 @@
           <t>3619450758</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:25:53</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44124.72630787037</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21878,10 +21304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:25:41</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44124.72616898148</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -21945,10 +21369,8 @@
           <t>3619450430</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:25:32</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44124.72606481481</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22016,10 +21438,8 @@
           <t>3619443695</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:25:21</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44124.7259375</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22095,10 +21515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:25:19</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44124.72591435185</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22174,10 +21592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:25:02</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44124.72571759259</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22237,10 +21653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:24:56</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44124.72564814815</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22308,10 +21722,8 @@
           <t>3619412358</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:24:37</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44124.72542824074</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22379,10 +21791,8 @@
           <t>3619439381</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:24:24</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44124.72527777778</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22450,10 +21860,8 @@
           <t>3619411764</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:24:13</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44124.72515046296</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22517,10 +21925,8 @@
           <t>3619445480</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:24:09</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44124.72510416667</v>
       </c>
       <c r="I306" t="n">
         <v>1</v>
@@ -22592,10 +21998,8 @@
           <t>3619448310</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:24:07</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44124.72508101852</v>
       </c>
       <c r="I307" t="n">
         <v>3</v>
@@ -22659,10 +22063,8 @@
           <t>3619422158</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:24:06</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44124.72506944444</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22734,10 +22136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:24:03</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44124.72503472222</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -22801,10 +22201,8 @@
           <t>3619448224</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:24:01</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44124.72501157408</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22872,10 +22270,8 @@
           <t>3619443695</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:23:59</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44124.72498842593</v>
       </c>
       <c r="I311" t="n">
         <v>7</v>
@@ -22939,10 +22335,8 @@
           <t>3619399785</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:23:51</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44124.72489583334</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23014,10 +22408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:23:22</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44124.72456018518</v>
       </c>
       <c r="I313" t="n">
         <v>51</v>
@@ -23085,10 +22477,8 @@
           <t>3619438344</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:23:16</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44124.72449074074</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23148,10 +22538,8 @@
           <t>3619443054</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:23:14</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44124.72446759259</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23219,10 +22607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:23:00</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44124.72430555556</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23286,10 +22672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:22:46</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44124.72414351852</v>
       </c>
       <c r="I317" t="n">
         <v>69</v>
@@ -23357,10 +22741,8 @@
           <t>3619442614</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:22:44</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44124.72412037037</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23420,10 +22802,8 @@
           <t>3619429104</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:22:33</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44124.72399305556</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23499,10 +22879,8 @@
           <t>3619442443</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:22:32</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44124.72398148148</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23562,10 +22940,8 @@
           <t>3619437455</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:22:20</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44124.72384259259</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23633,10 +23009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:22:09</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44124.72371527777</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23704,10 +23078,8 @@
           <t>3619422158</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:21:55</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44124.72355324074</v>
       </c>
       <c r="I323" t="n">
         <v>3</v>
@@ -23779,10 +23151,8 @@
           <t>3619436925</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:21:48</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44124.72347222222</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -23858,10 +23228,8 @@
           <t>3619436465</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:21:18</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44124.723125</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -23933,10 +23301,8 @@
           <t>3619445480</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:21:04</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44124.72296296297</v>
       </c>
       <c r="I326" t="n">
         <v>60</v>
@@ -24004,10 +23370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:20:54</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44124.72284722222</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24075,10 +23439,8 @@
           <t>3619435955</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:20:45</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44124.72274305556</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24142,10 +23504,8 @@
           <t>3619435931</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:20:44</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44124.72273148148</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24221,10 +23581,8 @@
           <t>3619429104</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:20:28</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44124.7225462963</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24292,10 +23650,8 @@
           <t>3619440576</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:20:28</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44124.7225462963</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24367,10 +23723,8 @@
           <t>3619435604</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:20:20</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44124.7224537037</v>
       </c>
       <c r="I332" t="n">
         <v>6</v>
@@ -24446,10 +23800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:20:08</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44124.72231481481</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24517,10 +23869,8 @@
           <t>3619435348</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:20:02</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44124.72224537037</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24588,10 +23938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:19:51</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44124.72211805556</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24663,10 +24011,8 @@
           <t>3619429733</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:19:31</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44124.72188657407</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24738,10 +24084,8 @@
           <t>3619424868</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:19:29</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44124.72186342593</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24817,10 +24161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:19:15</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44124.72170138889</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24888,10 +24230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:19:10</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44124.72164351852</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -24970,10 +24310,8 @@
           <t>3619424545</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:19:07</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44124.7216087963</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25049,10 +24387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:19:04</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44124.72157407407</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25124,10 +24460,8 @@
           <t>3619424428</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:18:59</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44124.7215162037</v>
       </c>
       <c r="I342" t="n">
         <v>3</v>
@@ -25195,10 +24529,8 @@
           <t>3619429232</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:18:58</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44124.72150462963</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25262,10 +24594,8 @@
           <t>3619433561</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:18:50</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44124.72141203703</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25337,10 +24667,8 @@
           <t>3619429104</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:18:49</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44124.72140046296</v>
       </c>
       <c r="I345" t="n">
         <v>8</v>
@@ -25416,10 +24744,8 @@
           <t>3619428949</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:18:38</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44124.72127314815</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25488,10 +24814,8 @@
           <t>3619399506</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:18:30</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44124.72118055556</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25563,10 +24887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:18:18</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44124.72104166666</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25630,10 +24952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:18:12</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44124.72097222223</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25705,10 +25025,8 @@
           <t>3619423749</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:18:12</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44124.72097222223</v>
       </c>
       <c r="I350" t="n">
         <v>7</v>
@@ -25768,10 +25086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:17:58</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44124.72081018519</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -25843,10 +25159,8 @@
           <t>3619428091</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:17:39</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44124.72059027778</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -25922,10 +25236,8 @@
           <t>3619406252</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:17:37</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44124.72056712963</v>
       </c>
       <c r="I353" t="n">
         <v>2</v>
@@ -25989,10 +25301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:17:30</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44124.72048611111</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26056,10 +25366,8 @@
           <t>3619432429</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:17:28</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44124.72046296296</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26131,10 +25439,8 @@
           <t>3619427886</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:17:23</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44124.72040509259</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -26202,10 +25508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:17:19</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44124.72035879629</v>
       </c>
       <c r="I357" t="n">
         <v>1</v>
@@ -26269,10 +25573,8 @@
           <t>3619399506</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:17:15</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44124.7203125</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26344,10 +25646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:17:10</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44124.72025462963</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26411,10 +25711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:17:07</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44124.72021990741</v>
       </c>
       <c r="I360" t="n">
         <v>23</v>
@@ -26490,10 +25788,8 @@
           <t>3619399506</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:17:04</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44124.72018518519</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26565,10 +25861,8 @@
           <t>3619422802</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:17:04</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44124.72018518519</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26640,10 +25934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:17:01</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44124.72015046296</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26719,10 +26011,8 @@
           <t>3619431951</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:16:53</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44124.72005787037</v>
       </c>
       <c r="I364" t="n">
         <v>4</v>
@@ -26786,10 +26076,8 @@
           <t>3619399506</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:16:50</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44124.72002314815</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26865,10 +26153,8 @@
           <t>3619431746</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:16:39</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44124.71989583333</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -26932,10 +26218,8 @@
           <t>3619431706</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:16:37</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44124.71987268519</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27007,10 +26291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:16:30</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44124.71979166667</v>
       </c>
       <c r="I368" t="n">
         <v>4</v>
@@ -27078,10 +26360,8 @@
           <t>3619422158</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:16:21</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44124.7196875</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -27153,10 +26433,8 @@
           <t>3619431385</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:16:14</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44124.71960648148</v>
       </c>
       <c r="I370" t="n">
         <v>1</v>
@@ -27228,10 +26506,8 @@
           <t>3619426879</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:16:12</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44124.71958333333</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27307,10 +26583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:16:01</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44124.71945601852</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27378,10 +26652,8 @@
           <t>3619398749</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:16:01</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44124.71945601852</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27453,10 +26725,8 @@
           <t>3619397907</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:15:54</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44124.719375</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27520,10 +26790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:15:50</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44124.7193287037</v>
       </c>
       <c r="I375" t="n">
         <v>1</v>
@@ -27591,10 +26859,8 @@
           <t>3619399506</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:15:47</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44124.71929398148</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27666,10 +26932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:15:45</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44124.71927083333</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27745,10 +27009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:15:41</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44124.71922453704</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27820,10 +27082,8 @@
           <t>3619419606</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:15:23</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44124.7190162037</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -27897,10 +27157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:15:21</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44124.71899305555</v>
       </c>
       <c r="I380" t="n">
         <v>1</v>
@@ -27968,10 +27226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:15:15</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44124.71892361111</v>
       </c>
       <c r="I381" t="n">
         <v>2</v>
@@ -28039,10 +27295,8 @@
           <t>3619399785</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:15:10</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44124.71886574074</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28118,10 +27372,8 @@
           <t>3619421099</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:15:08</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44124.71884259259</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28197,10 +27449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:14:59</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44124.71873842592</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28264,10 +27514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:14:53</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44124.71866898148</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28335,10 +27583,8 @@
           <t>3619399506</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:14:52</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44124.71865740741</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28410,10 +27656,8 @@
           <t>3619419973</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:14:36</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44124.71847222222</v>
       </c>
       <c r="I387" t="n">
         <v>5</v>
@@ -28473,10 +27717,8 @@
           <t>3619403339</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:14:29</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44124.71839120371</v>
       </c>
       <c r="I388" t="n">
         <v>2</v>
@@ -28552,10 +27794,8 @@
           <t>3619408722</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:14:28</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44124.71837962963</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28632,10 +27872,8 @@
           <t>3619419804</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:14:25</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44124.71834490741</v>
       </c>
       <c r="I390" t="n">
         <v>2</v>
@@ -28711,10 +27949,8 @@
           <t>3619420420</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:14:22</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44124.71831018518</v>
       </c>
       <c r="I391" t="n">
         <v>3</v>
@@ -28782,10 +28018,8 @@
           <t>3619419606</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:14:11</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44124.71818287037</v>
       </c>
       <c r="I392" t="n">
         <v>8</v>
@@ -28853,10 +28087,8 @@
           <t>3619398560</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:14:09</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44124.71815972222</v>
       </c>
       <c r="I393" t="n">
         <v>30</v>
@@ -28924,10 +28156,8 @@
           <t>3619420229</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:14:09</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44124.71815972222</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29004,10 +28234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:14:05</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44124.71811342592</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29067,10 +28295,8 @@
           <t>3619419269</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:13:47</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44124.71790509259</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29146,10 +28372,8 @@
           <t>3619408722</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:13:40</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44124.71782407408</v>
       </c>
       <c r="I397" t="n">
         <v>1</v>
@@ -29227,10 +28451,8 @@
           <t>3619409687</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:13:34</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44124.71775462963</v>
       </c>
       <c r="I398" t="n">
         <v>9</v>
@@ -29298,10 +28520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:13:34</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44124.71775462963</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29365,10 +28585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:13:25</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44124.71765046296</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29440,10 +28658,8 @@
           <t>3619415733</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:13:16</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44124.7175462963</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29515,10 +28731,8 @@
           <t>3619418786</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:13:14</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44124.71752314815</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29594,10 +28808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:13:01</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44124.71737268518</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29665,10 +28877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:12:56</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44124.71731481481</v>
       </c>
       <c r="I404" t="n">
         <v>3</v>
@@ -29744,10 +28954,8 @@
           <t>3619413914</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:12:53</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44124.71728009259</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29811,10 +29019,8 @@
           <t>3619418476</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:12:51</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44124.71725694444</v>
       </c>
       <c r="I406" t="n">
         <v>2</v>
@@ -29882,10 +29088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:12:39</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44124.71711805555</v>
       </c>
       <c r="I407" t="n">
         <v>10</v>
@@ -29949,10 +29153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:12:35</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44124.71707175926</v>
       </c>
       <c r="I408" t="n">
         <v>7</v>
@@ -30028,10 +29230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:12:35</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44124.71707175926</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30091,10 +29291,8 @@
           <t>3619408722</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:12:32</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44124.71703703704</v>
       </c>
       <c r="I410" t="n">
         <v>10</v>
@@ -30162,10 +29360,8 @@
           <t>3619412358</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:12:30</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44124.71701388889</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30233,10 +29429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:12:24</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44124.71694444444</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30308,10 +29502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:12:23</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44124.71693287037</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30395,10 +29587,8 @@
           <t>3619408428</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:12:13</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44124.71681712963</v>
       </c>
       <c r="I414" t="n">
         <v>11</v>
@@ -30470,10 +29660,8 @@
           <t>3619413302</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:12:12</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44124.71680555555</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30550,10 +29738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:12:07</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44124.71674768518</v>
       </c>
       <c r="I416" t="n">
         <v>3</v>
@@ -30625,10 +29811,8 @@
           <t>3619391872</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:12:05</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44124.71672453704</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30705,10 +29889,8 @@
           <t>3619412358</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:11:59</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44124.71665509259</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -30780,10 +29962,8 @@
           <t>3619408147</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:11:55</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44124.7166087963</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30859,10 +30039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:11:54</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44124.71659722222</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -30938,10 +30116,8 @@
           <t>3619408134</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:11:54</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44124.71659722222</v>
       </c>
       <c r="I421" t="n">
         <v>2</v>
@@ -31010,10 +30186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:11:44</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44124.71648148148</v>
       </c>
       <c r="I422" t="n">
         <v>4</v>
@@ -31089,10 +30263,8 @@
           <t>3619399506</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:11:37</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44124.71640046296</v>
       </c>
       <c r="I423" t="n">
         <v>2</v>
@@ -31156,10 +30328,8 @@
           <t>3619412725</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:11:35</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44124.71637731481</v>
       </c>
       <c r="I424" t="n">
         <v>4</v>
@@ -31223,10 +30393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:11:28</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44124.7162962963</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31294,10 +30462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:11:25</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44124.71626157407</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31385,10 +30551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:11:12</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44124.71611111111</v>
       </c>
       <c r="I427" t="n">
         <v>13</v>
@@ -31460,10 +30624,8 @@
           <t>3619394795</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:11:11</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44124.71609953704</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31535,10 +30697,8 @@
           <t>3619412358</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:11:11</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44124.71609953704</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31606,10 +30766,8 @@
           <t>3619403339</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:11:01</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44124.7159837963</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
@@ -31685,10 +30843,8 @@
           <t>3619416876</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:10:58</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44124.71594907407</v>
       </c>
       <c r="I431" t="n">
         <v>2</v>
@@ -31756,10 +30912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:10:57</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44124.7159375</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31831,10 +30985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:10:57</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44124.7159375</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31898,10 +31050,8 @@
           <t>3619391872</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:10:56</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44124.71592592593</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -31973,10 +31123,8 @@
           <t>3619412032</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:10:51</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44124.71586805556</v>
       </c>
       <c r="I435" t="n">
         <v>6</v>
@@ -32045,10 +31193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:10:49</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44124.7158449074</v>
       </c>
       <c r="I436" t="n">
         <v>2</v>
@@ -32117,10 +31263,8 @@
           <t>3619415269</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:10:47</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44124.71582175926</v>
       </c>
       <c r="I437" t="n">
         <v>11</v>
@@ -32188,10 +31332,8 @@
           <t>3619411764</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:10:31</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44124.71563657407</v>
       </c>
       <c r="I438" t="n">
         <v>22</v>
@@ -32259,10 +31401,8 @@
           <t>3619415733</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:10:31</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44124.71563657407</v>
       </c>
       <c r="I439" t="n">
         <v>1</v>
@@ -32331,10 +31471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:10:24</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44124.71555555556</v>
       </c>
       <c r="I440" t="n">
         <v>1</v>
@@ -32406,10 +31544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:10:23</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44124.71554398148</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32477,10 +31613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:10:16</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44124.71546296297</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32556,10 +31690,8 @@
           <t>3619406553</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:10:09</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44124.71538194444</v>
       </c>
       <c r="I443" t="n">
         <v>1</v>
@@ -32635,10 +31767,8 @@
           <t>3619406252</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:09:48</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44124.71513888889</v>
       </c>
       <c r="I444" t="n">
         <v>1</v>
@@ -32702,10 +31832,8 @@
           <t>3619415733</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:09:38</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44124.71502314815</v>
       </c>
       <c r="I445" t="n">
         <v>28</v>
@@ -32781,10 +31909,8 @@
           <t>3619406014</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:09:32</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44124.7149537037</v>
       </c>
       <c r="I446" t="n">
         <v>23</v>
@@ -32860,10 +31986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:09:09</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44124.7146875</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -32935,10 +32059,8 @@
           <t>3619415269</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:09:05</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44124.7146412037</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33010,10 +32132,8 @@
           <t>3619399785</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:09:01</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44124.7145949074</v>
       </c>
       <c r="I449" t="n">
         <v>12</v>
@@ -33081,10 +32201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:08:57</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44124.71454861111</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33156,10 +32274,8 @@
           <t>3619394795</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:08:57</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44124.71454861111</v>
       </c>
       <c r="I451" t="n">
         <v>2</v>
@@ -33227,10 +32343,8 @@
           <t>3619403339</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:08:38</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44124.7143287037</v>
       </c>
       <c r="I452" t="n">
         <v>35</v>
@@ -33298,10 +32412,8 @@
           <t>3619394977</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:08:22</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44124.71414351852</v>
       </c>
       <c r="I453" t="n">
         <v>3</v>
@@ -33377,10 +32489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:08:14</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44124.71405092593</v>
       </c>
       <c r="I454" t="n">
         <v>1</v>
@@ -33456,10 +32566,8 @@
           <t>3619394795</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:08:09</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44124.71399305556</v>
       </c>
       <c r="I455" t="n">
         <v>3</v>
@@ -33532,10 +32640,8 @@
           <t>3619399785</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:08:05</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44124.71394675926</v>
       </c>
       <c r="I456" t="n">
         <v>24</v>
@@ -33603,10 +32709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:08:02</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44124.71391203703</v>
       </c>
       <c r="I457" t="n">
         <v>1</v>
@@ -33682,10 +32786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:07:50</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44124.71377314815</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33753,10 +32855,8 @@
           <t>3619398612</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:07:50</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44124.71377314815</v>
       </c>
       <c r="I459" t="n">
         <v>3</v>
@@ -33824,10 +32924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:07:48</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44124.71375</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -33887,10 +32985,8 @@
           <t>3619399506</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:07:44</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44124.7137037037</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -33962,10 +33058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:07:23</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44124.71346064815</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34034,10 +33128,8 @@
           <t>3619399016</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:07:09</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44124.71329861111</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34105,10 +33197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:07:03</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44124.71322916666</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34180,10 +33270,8 @@
           <t>3619398888</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:07:01</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44124.71320601852</v>
       </c>
       <c r="I465" t="n">
         <v>15</v>
@@ -34251,10 +33339,8 @@
           <t>3619398749</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:06:51</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44124.71309027778</v>
       </c>
       <c r="I466" t="n">
         <v>14</v>
@@ -34330,10 +33416,8 @@
           <t>3619403339</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:06:47</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44124.71304398148</v>
       </c>
       <c r="I467" t="n">
         <v>81</v>
@@ -34401,10 +33485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:06:46</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44124.71303240741</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34480,10 +33562,8 @@
           <t>3619403328</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:06:46</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44124.71303240741</v>
       </c>
       <c r="I469" t="n">
         <v>133</v>
@@ -34551,10 +33631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:06:45</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44124.71302083333</v>
       </c>
       <c r="I470" t="n">
         <v>1</v>
@@ -34630,10 +33708,8 @@
           <t>3619398612</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:06:42</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44124.71298611111</v>
       </c>
       <c r="I471" t="n">
         <v>1</v>
@@ -34705,10 +33781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:06:41</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44124.71297453704</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -34784,10 +33858,8 @@
           <t>3619398560</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:06:37</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44124.71292824074</v>
       </c>
       <c r="I473" t="n">
         <v>86</v>
@@ -34854,10 +33926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:06:32</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44124.71287037037</v>
       </c>
       <c r="I474" t="n">
         <v>831</v>
@@ -34917,10 +33987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:06:28</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44124.71282407407</v>
       </c>
       <c r="I475" t="n">
         <v>2</v>
@@ -34992,10 +34060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:06:17</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44124.71269675926</v>
       </c>
       <c r="I476" t="n">
         <v>1</v>
@@ -35071,10 +34137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:06:14</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44124.71266203704</v>
       </c>
       <c r="I477" t="n">
         <v>2</v>
@@ -35150,10 +34214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:06:11</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44124.71262731482</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35221,10 +34283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:06:06</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44124.71256944445</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35303,10 +34363,8 @@
           <t>3619392981</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:06:03</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44124.71253472222</v>
       </c>
       <c r="I480" t="n">
         <v>15</v>
@@ -35366,10 +34424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:06:01</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44124.71251157407</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35433,10 +34489,8 @@
           <t>3619397907</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:05:53</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44124.71241898148</v>
       </c>
       <c r="I482" t="n">
         <v>148</v>
@@ -35513,10 +34567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:05:45</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44124.71232638889</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35580,10 +34632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:05:43</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44124.71230324074</v>
       </c>
       <c r="I484" t="n">
         <v>76</v>
@@ -35657,10 +34707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:05:40</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44124.71226851852</v>
       </c>
       <c r="I485" t="n">
         <v>2</v>
@@ -35731,10 +34779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:05:37</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44124.71223379629</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35794,10 +34840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:05:25</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44124.71209490741</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -35869,10 +34913,8 @@
           <t>3619402143</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:05:23</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44124.71207175926</v>
       </c>
       <c r="I488" t="n">
         <v>6</v>
@@ -35936,10 +34978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:05:17</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44124.71200231482</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36015,10 +35055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:05:17</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44124.71200231482</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36094,10 +35132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:05:12</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44124.71194444445</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36157,10 +35193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:04:57</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44124.71177083333</v>
       </c>
       <c r="I492" t="n">
         <v>235</v>
@@ -36228,10 +35262,8 @@
           <t>3619397048</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:04:55</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44124.71174768519</v>
       </c>
       <c r="I493" t="n">
         <v>3</v>
@@ -36307,10 +35339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:04:53</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44124.71172453704</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36386,10 +35416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:04:47</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44124.71165509259</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36465,10 +35493,8 @@
           <t>3619391872</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:04:46</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44124.71164351852</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36536,10 +35562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:04:45</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44124.71163194445</v>
       </c>
       <c r="I497" t="n">
         <v>2</v>
@@ -36611,10 +35635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:04:44</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44124.71162037037</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36674,10 +35696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:04:35</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44124.7115162037</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36753,10 +35773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:04:29</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44124.71144675926</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36824,10 +35842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:04:27</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44124.71142361111</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36899,10 +35915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:04:20</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44124.71134259259</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -36970,10 +35984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:04:19</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44124.71133101852</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37049,10 +36061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:04:18</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44124.71131944445</v>
       </c>
       <c r="I504" t="n">
         <v>8</v>
@@ -37120,10 +36130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:04:18</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44124.71131944445</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37187,10 +36195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:04:18</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44124.71131944445</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37254,10 +36260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:04:05</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44124.71116898148</v>
       </c>
       <c r="I507" t="n">
         <v>5</v>
@@ -37333,10 +36337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:04:03</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44124.71114583333</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37408,10 +36410,8 @@
           <t>3619391257</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:04:01</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44124.71112268518</v>
       </c>
       <c r="I509" t="n">
         <v>18</v>
@@ -37487,10 +36487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:03:59</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44124.71109953704</v>
       </c>
       <c r="I510" t="n">
         <v>2</v>
@@ -37566,10 +36564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:03:56</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44124.71106481482</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37633,10 +36629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:03:56</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44124.71106481482</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37710,10 +36704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:03:55</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44124.71105324074</v>
       </c>
       <c r="I513" t="n">
         <v>261</v>
@@ -37790,10 +36782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:03:49</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44124.7109837963</v>
       </c>
       <c r="I514" t="n">
         <v>1</v>
@@ -37857,10 +36847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:03:38</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44124.71085648148</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -37932,10 +36920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:03:37</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44124.71084490741</v>
       </c>
       <c r="I516" t="n">
         <v>22</v>
@@ -38027,10 +37013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:03:36</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44124.71083333333</v>
       </c>
       <c r="I517" t="n">
         <v>1151</v>
@@ -38106,10 +37090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:03:33</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44124.71079861111</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38173,10 +37155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:03:33</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44124.71079861111</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38248,10 +37228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:03:29</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44124.71075231482</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38323,10 +37301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:03:26</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44124.71071759259</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38402,10 +37378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:03:25</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44124.71070601852</v>
       </c>
       <c r="I522" t="n">
         <v>3</v>
@@ -38474,10 +37448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:03:24</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44124.71069444445</v>
       </c>
       <c r="I523" t="n">
         <v>1</v>
@@ -38553,10 +37525,8 @@
           <t>3619390711</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:03:23</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44124.71068287037</v>
       </c>
       <c r="I524" t="n">
         <v>11</v>
@@ -38625,10 +37595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:03:22</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44124.7106712963</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38692,10 +37660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:03:18</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44124.710625</v>
       </c>
       <c r="I526" t="n">
         <v>4</v>
@@ -38771,10 +37737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:03:16</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44124.71060185185</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38834,10 +37798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:03:12</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44124.71055555555</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38905,10 +37867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:03:10</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44124.71053240741</v>
       </c>
       <c r="I529" t="n">
         <v>2</v>
@@ -38980,10 +37940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:03:02</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44124.71043981481</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39059,10 +38017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:03:01</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44124.71042824074</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39138,10 +38094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:58</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44124.71039351852</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39209,10 +38163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:47</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44124.71026620371</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39276,10 +38228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:44</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44124.71023148148</v>
       </c>
       <c r="I534" t="n">
         <v>2</v>
@@ -39347,10 +38297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:43</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44124.71021990741</v>
       </c>
       <c r="I535" t="n">
         <v>2</v>
@@ -39414,10 +38362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:42</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44124.71020833333</v>
       </c>
       <c r="I536" t="n">
         <v>31</v>
@@ -39494,10 +38440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:41</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44124.71019675926</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39557,10 +38501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:41</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44124.71019675926</v>
       </c>
       <c r="I538" t="n">
         <v>1</v>
@@ -39624,10 +38566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:41</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44124.71019675926</v>
       </c>
       <c r="I539" t="n">
         <v>1</v>
@@ -39703,10 +38643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:37</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44124.71015046296</v>
       </c>
       <c r="I540" t="n">
         <v>427</v>
@@ -39782,10 +38720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:37</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44124.71015046296</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -39849,10 +38785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:37</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44124.71015046296</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -39920,10 +38854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:32</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44124.71009259259</v>
       </c>
       <c r="I543" t="n">
         <v>1</v>
@@ -39987,10 +38919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:30</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44124.71006944445</v>
       </c>
       <c r="I544" t="n">
         <v>1</v>
@@ -40062,10 +38992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:28</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44124.7100462963</v>
       </c>
       <c r="I545" t="n">
         <v>186</v>
@@ -40133,10 +39061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:24</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44124.71</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40200,10 +39126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:24</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44124.71</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40275,10 +39199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:24</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44124.71</v>
       </c>
       <c r="I548" t="n">
         <v>1</v>
@@ -40350,10 +39272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:22</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44124.70997685185</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40417,10 +39337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:21</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44124.70996527778</v>
       </c>
       <c r="I550" t="n">
         <v>1</v>
@@ -40496,10 +39414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:20</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44124.70995370371</v>
       </c>
       <c r="I551" t="n">
         <v>2</v>
@@ -40571,10 +39487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:20</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44124.70995370371</v>
       </c>
       <c r="I552" t="n">
         <v>1</v>
@@ -40638,10 +39552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:20</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44124.70995370371</v>
       </c>
       <c r="I553" t="n">
         <v>1</v>
@@ -40717,10 +39629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:20</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44124.70995370371</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40796,10 +39706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:17</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44124.70991898148</v>
       </c>
       <c r="I555" t="n">
         <v>306</v>
@@ -40859,10 +39767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:17</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44124.70991898148</v>
       </c>
       <c r="I556" t="n">
         <v>1</v>
@@ -40926,10 +39832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:16</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44124.70990740741</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -41006,10 +39910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:14</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44124.70988425926</v>
       </c>
       <c r="I558" t="n">
         <v>1</v>
@@ -41073,10 +39975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:13</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44124.70987268518</v>
       </c>
       <c r="I559" t="n">
         <v>999</v>
@@ -41145,10 +40045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:11</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44124.70984953704</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41224,10 +40122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:11</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44124.70984953704</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41299,10 +40195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2020-10-20 17:02:10</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44124.70983796296</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
